--- a/Code/Results/Cases/Case_0_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_217/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9703879261594424</v>
+        <v>1.022350787414186</v>
       </c>
       <c r="D2">
-        <v>0.9834203820070236</v>
+        <v>1.031528190178009</v>
       </c>
       <c r="E2">
-        <v>0.980597262565721</v>
+        <v>1.023070562848129</v>
       </c>
       <c r="F2">
-        <v>0.9845390042495904</v>
+        <v>1.038231974351167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9934919008188741</v>
+        <v>1.027537115733058</v>
       </c>
       <c r="K2">
-        <v>0.9951156339500009</v>
+        <v>1.034336047918498</v>
       </c>
       <c r="L2">
-        <v>0.9923336942538048</v>
+        <v>1.025903081956963</v>
       </c>
       <c r="M2">
-        <v>0.9962180221006667</v>
+        <v>1.041020594774783</v>
       </c>
       <c r="N2">
-        <v>1.001142583449286</v>
+        <v>1.013110380410271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9763490833094177</v>
+        <v>1.023593510720765</v>
       </c>
       <c r="D3">
-        <v>0.9889411636448444</v>
+        <v>1.0327422910951</v>
       </c>
       <c r="E3">
-        <v>0.9854568658910319</v>
+        <v>1.024135802793349</v>
       </c>
       <c r="F3">
-        <v>0.9907010294037466</v>
+        <v>1.039598811691194</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9975059400596136</v>
+        <v>1.028416327729058</v>
       </c>
       <c r="K3">
-        <v>0.9997175276507289</v>
+        <v>1.03535764479218</v>
       </c>
       <c r="L3">
-        <v>0.9962792741240822</v>
+        <v>1.026774417607138</v>
       </c>
       <c r="M3">
-        <v>1.001454291443158</v>
+        <v>1.042195931920883</v>
       </c>
       <c r="N3">
-        <v>1.002570513200314</v>
+        <v>1.013413320091271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9801118835607742</v>
+        <v>1.024397749068383</v>
       </c>
       <c r="D4">
-        <v>0.9924325428984861</v>
+        <v>1.033528378173576</v>
       </c>
       <c r="E4">
-        <v>0.9885312375131465</v>
+        <v>1.024825458674122</v>
       </c>
       <c r="F4">
-        <v>0.9945984641690955</v>
+        <v>1.040483999279207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.000038384051628</v>
+        <v>1.028984897215536</v>
       </c>
       <c r="K4">
-        <v>1.002623166753065</v>
+        <v>1.036018609460988</v>
       </c>
       <c r="L4">
-        <v>0.9987700800216911</v>
+        <v>1.027338015034045</v>
       </c>
       <c r="M4">
-        <v>1.004762521128084</v>
+        <v>1.042956677041177</v>
       </c>
       <c r="N4">
-        <v>1.003469934716258</v>
+        <v>1.013608922337439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9816722392291295</v>
+        <v>1.024735880523187</v>
       </c>
       <c r="D5">
-        <v>0.9938818633909949</v>
+        <v>1.033858966674272</v>
       </c>
       <c r="E5">
-        <v>0.9898076891709771</v>
+        <v>1.025115480973066</v>
       </c>
       <c r="F5">
-        <v>0.9962164985299164</v>
+        <v>1.040856314753914</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.001088174229124</v>
+        <v>1.029223844021568</v>
       </c>
       <c r="K5">
-        <v>1.003828224396492</v>
+        <v>1.036296462350704</v>
       </c>
       <c r="L5">
-        <v>0.9998029706818782</v>
+        <v>1.027574901192634</v>
       </c>
       <c r="M5">
-        <v>1.006135049999643</v>
+        <v>1.043276549872753</v>
       </c>
       <c r="N5">
-        <v>1.00384240859526</v>
+        <v>1.013691053268918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9819329978669434</v>
+        <v>1.024792656095009</v>
       </c>
       <c r="D6">
-        <v>0.9941241540920498</v>
+        <v>1.033914480885</v>
       </c>
       <c r="E6">
-        <v>0.9900210934507803</v>
+        <v>1.025164182366333</v>
       </c>
       <c r="F6">
-        <v>0.9964870038958445</v>
+        <v>1.040918838941032</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001263587055334</v>
+        <v>1.029263959604413</v>
       </c>
       <c r="K6">
-        <v>1.004029614786234</v>
+        <v>1.036343114147181</v>
       </c>
       <c r="L6">
-        <v>0.9999755806160656</v>
+        <v>1.027614672514299</v>
       </c>
       <c r="M6">
-        <v>1.006364458400134</v>
+        <v>1.04333026124927</v>
       </c>
       <c r="N6">
-        <v>1.003904624183512</v>
+        <v>1.013704837543325</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9801328163028639</v>
+        <v>1.024402267077738</v>
       </c>
       <c r="D7">
-        <v>0.9924519801333979</v>
+        <v>1.033532795049188</v>
       </c>
       <c r="E7">
-        <v>0.9885483554631607</v>
+        <v>1.024829333607175</v>
       </c>
       <c r="F7">
-        <v>0.9946201634259353</v>
+        <v>1.040488973456156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.000052468867941</v>
+        <v>1.028988090346214</v>
       </c>
       <c r="K7">
-        <v>1.002639332518064</v>
+        <v>1.036022322208186</v>
       </c>
       <c r="L7">
-        <v>0.998783936688039</v>
+        <v>1.027341180514156</v>
       </c>
       <c r="M7">
-        <v>1.004780931495421</v>
+        <v>1.042960950976578</v>
       </c>
       <c r="N7">
-        <v>1.003474933606174</v>
+        <v>1.013610020168529</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.972422767496315</v>
+        <v>1.022770749646192</v>
       </c>
       <c r="D8">
-        <v>0.9853034885037809</v>
+        <v>1.031938402518974</v>
       </c>
       <c r="E8">
-        <v>0.9822545875483921</v>
+        <v>1.023430488954062</v>
       </c>
       <c r="F8">
-        <v>0.9866407415430802</v>
+        <v>1.038693749124722</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9948623340110135</v>
+        <v>1.027834320712148</v>
       </c>
       <c r="K8">
-        <v>0.9966862834495693</v>
+        <v>1.034681318314149</v>
       </c>
       <c r="L8">
-        <v>0.9936804207666459</v>
+        <v>1.026197599202938</v>
       </c>
       <c r="M8">
-        <v>0.9980047658054202</v>
+        <v>1.041417760474974</v>
       </c>
       <c r="N8">
-        <v>1.001630386487763</v>
+        <v>1.01321284743053</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9580600010048931</v>
+        <v>1.019896561574956</v>
       </c>
       <c r="D9">
-        <v>0.972042241996571</v>
+        <v>1.029132487648931</v>
       </c>
       <c r="E9">
-        <v>0.9705896241751729</v>
+        <v>1.020968353559982</v>
       </c>
       <c r="F9">
-        <v>0.9718408744294642</v>
+        <v>1.035535986312455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9851859468154541</v>
+        <v>1.025798565733092</v>
       </c>
       <c r="K9">
-        <v>0.9856058079599</v>
+        <v>1.032317632095826</v>
       </c>
       <c r="L9">
-        <v>0.9841785952718974</v>
+        <v>1.024180759041069</v>
       </c>
       <c r="M9">
-        <v>0.985407956279268</v>
+        <v>1.038700078505805</v>
       </c>
       <c r="N9">
-        <v>0.998180726014722</v>
+        <v>1.012509748483676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9478809748393705</v>
+        <v>1.017980783264892</v>
       </c>
       <c r="D10">
-        <v>0.9626858489950447</v>
+        <v>1.027264179551022</v>
       </c>
       <c r="E10">
-        <v>0.9623692787768385</v>
+        <v>1.019328731903349</v>
       </c>
       <c r="F10">
-        <v>0.9613987236109647</v>
+        <v>1.033434454454585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.978326726560633</v>
+        <v>1.0244395104461</v>
       </c>
       <c r="K10">
-        <v>0.9777631688320687</v>
+        <v>1.030741283319735</v>
       </c>
       <c r="L10">
-        <v>0.9774529147323702</v>
+        <v>1.022834971900181</v>
       </c>
       <c r="M10">
-        <v>0.9765017579096976</v>
+        <v>1.036889244533728</v>
       </c>
       <c r="N10">
-        <v>0.9957295369560453</v>
+        <v>1.012038824820527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.943309436435283</v>
+        <v>1.017151276390657</v>
       </c>
       <c r="D11">
-        <v>0.9584948100232441</v>
+        <v>1.026455699255192</v>
       </c>
       <c r="E11">
-        <v>0.9586900712138905</v>
+        <v>1.018619165307329</v>
       </c>
       <c r="F11">
-        <v>0.9567207615304987</v>
+        <v>1.032525296757998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9752467652338245</v>
+        <v>1.023850556107359</v>
       </c>
       <c r="K11">
-        <v>0.9742443266524109</v>
+        <v>1.030058549531312</v>
       </c>
       <c r="L11">
-        <v>0.9744354723468921</v>
+        <v>1.022251921506253</v>
       </c>
       <c r="M11">
-        <v>0.9725077714698395</v>
+        <v>1.036105329595163</v>
       </c>
       <c r="N11">
-        <v>0.9946278391905972</v>
+        <v>1.011834385359114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9415847511046151</v>
+        <v>1.016843163104841</v>
       </c>
       <c r="D12">
-        <v>0.9569154343587631</v>
+        <v>1.026155467707971</v>
       </c>
       <c r="E12">
-        <v>0.9573040804065861</v>
+        <v>1.018355659059484</v>
       </c>
       <c r="F12">
-        <v>0.9549577545359776</v>
+        <v>1.032187715109719</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9740849814364463</v>
+        <v>1.02363171906525</v>
       </c>
       <c r="K12">
-        <v>0.9729173883251587</v>
+        <v>1.029804924881122</v>
       </c>
       <c r="L12">
-        <v>0.9732976767556915</v>
+        <v>1.022035301521377</v>
       </c>
       <c r="M12">
-        <v>0.9710019446003558</v>
+        <v>1.035814174280222</v>
       </c>
       <c r="N12">
-        <v>0.9942121430653501</v>
+        <v>1.011758367914563</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.941955940317302</v>
+        <v>1.016909254388389</v>
       </c>
       <c r="D13">
-        <v>0.9572552686236533</v>
+        <v>1.02621986508416</v>
       </c>
       <c r="E13">
-        <v>0.9576022803232856</v>
+        <v>1.018412179430913</v>
       </c>
       <c r="F13">
-        <v>0.9553371077606724</v>
+        <v>1.032260122139005</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9743350125285736</v>
+        <v>1.023678663695606</v>
       </c>
       <c r="K13">
-        <v>0.9732029452024706</v>
+        <v>1.029859329483643</v>
       </c>
       <c r="L13">
-        <v>0.9735425265903048</v>
+        <v>1.022081769492735</v>
       </c>
       <c r="M13">
-        <v>0.9713259857218954</v>
+        <v>1.035876626968145</v>
       </c>
       <c r="N13">
-        <v>0.9943016115779204</v>
+        <v>1.011774677520252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9431674284862117</v>
+        <v>1.017125807617683</v>
       </c>
       <c r="D14">
-        <v>0.9583647303053724</v>
+        <v>1.026430880526107</v>
       </c>
       <c r="E14">
-        <v>0.9585759083820137</v>
+        <v>1.018597382618046</v>
       </c>
       <c r="F14">
-        <v>0.9565755607363686</v>
+        <v>1.032497389723697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9751511015328267</v>
+        <v>1.023832468472985</v>
       </c>
       <c r="K14">
-        <v>0.9741350558388857</v>
+        <v>1.030037585400715</v>
       </c>
       <c r="L14">
-        <v>0.9743417755199925</v>
+        <v>1.022234016642251</v>
       </c>
       <c r="M14">
-        <v>0.9723837638582202</v>
+        <v>1.036081262099261</v>
       </c>
       <c r="N14">
-        <v>0.9945936123163642</v>
+        <v>1.011828103358284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9439102771563266</v>
+        <v>1.017259233445825</v>
       </c>
       <c r="D15">
-        <v>0.9590452542272404</v>
+        <v>1.026560903839274</v>
       </c>
       <c r="E15">
-        <v>0.9591731825161891</v>
+        <v>1.018711500096753</v>
       </c>
       <c r="F15">
-        <v>0.9573351860892869</v>
+        <v>1.032643593921437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9756515296727784</v>
+        <v>1.023927222918935</v>
       </c>
       <c r="K15">
-        <v>0.9747066803845073</v>
+        <v>1.030147411120228</v>
       </c>
       <c r="L15">
-        <v>0.9748319313494217</v>
+        <v>1.022327814578219</v>
       </c>
       <c r="M15">
-        <v>0.9730324919995784</v>
+        <v>1.036207347869417</v>
       </c>
       <c r="N15">
-        <v>0.9947726521326503</v>
+        <v>1.011861010229249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9481807541067179</v>
+        <v>1.018035835429233</v>
       </c>
       <c r="D16">
-        <v>0.9629609145311779</v>
+        <v>1.027317846245128</v>
       </c>
       <c r="E16">
-        <v>0.9626108182090501</v>
+        <v>1.019375831785874</v>
       </c>
       <c r="F16">
-        <v>0.9617057307284824</v>
+        <v>1.033494809256067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.978528715403869</v>
+        <v>1.024478587248081</v>
       </c>
       <c r="K16">
-        <v>0.9779939953157269</v>
+        <v>1.030786590459599</v>
       </c>
       <c r="L16">
-        <v>0.9776508583295888</v>
+        <v>1.022873660240158</v>
       </c>
       <c r="M16">
-        <v>0.976763793368443</v>
+        <v>1.036941274122437</v>
       </c>
       <c r="N16">
-        <v>0.995801768744349</v>
+        <v>1.012052381666033</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9508142818763792</v>
+        <v>1.018522985208828</v>
       </c>
       <c r="D17">
-        <v>0.965378597460801</v>
+        <v>1.027792790841299</v>
       </c>
       <c r="E17">
-        <v>0.9647341663628701</v>
+        <v>1.019792655448253</v>
       </c>
       <c r="F17">
-        <v>0.9644040926050904</v>
+        <v>1.034028971342203</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9803032439333661</v>
+        <v>1.024824315165395</v>
       </c>
       <c r="K17">
-        <v>0.9800221751314754</v>
+        <v>1.031187485193935</v>
       </c>
       <c r="L17">
-        <v>0.9793901403226</v>
+        <v>1.023215969099819</v>
       </c>
       <c r="M17">
-        <v>0.9790664242734892</v>
+        <v>1.037401695154321</v>
       </c>
       <c r="N17">
-        <v>0.996436229470677</v>
+        <v>1.012172282668454</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9523346992121368</v>
+        <v>1.018807135293721</v>
       </c>
       <c r="D18">
-        <v>0.966775436269261</v>
+        <v>1.028069867312775</v>
       </c>
       <c r="E18">
-        <v>0.9659612260658467</v>
+        <v>1.020035820392533</v>
       </c>
       <c r="F18">
-        <v>0.9659630452978211</v>
+        <v>1.034340618327948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9813277854817515</v>
+        <v>1.025025926763864</v>
       </c>
       <c r="K18">
-        <v>0.981193420273597</v>
+        <v>1.031421304602492</v>
       </c>
       <c r="L18">
-        <v>0.9803945717616467</v>
+        <v>1.023415601722137</v>
       </c>
       <c r="M18">
-        <v>0.9803963566324764</v>
+        <v>1.037670269284661</v>
       </c>
       <c r="N18">
-        <v>0.9968024401878205</v>
+        <v>1.012242168134054</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9528505203331805</v>
+        <v>1.018904023879935</v>
       </c>
       <c r="D19">
-        <v>0.9672495045624999</v>
+        <v>1.028164351670755</v>
       </c>
       <c r="E19">
-        <v>0.9663777186839869</v>
+        <v>1.020118739981219</v>
       </c>
       <c r="F19">
-        <v>0.9664921256222319</v>
+        <v>1.0344468954371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9816753805148078</v>
+        <v>1.025094663423481</v>
       </c>
       <c r="K19">
-        <v>0.9815908309259296</v>
+        <v>1.031501028381117</v>
       </c>
       <c r="L19">
-        <v>0.9807353841323695</v>
+        <v>1.023483666190937</v>
       </c>
       <c r="M19">
-        <v>0.9808476446519037</v>
+        <v>1.037761849312173</v>
       </c>
       <c r="N19">
-        <v>0.9969266659942168</v>
+        <v>1.012265988675049</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9505333642495974</v>
+        <v>1.018470718272737</v>
       </c>
       <c r="D20">
-        <v>0.9651205957310414</v>
+        <v>1.027741828698423</v>
       </c>
       <c r="E20">
-        <v>0.9645075454012945</v>
+        <v>1.01974793021937</v>
       </c>
       <c r="F20">
-        <v>0.9641161440059055</v>
+        <v>1.033971652629332</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9801139495811935</v>
+        <v>1.024787226567877</v>
       </c>
       <c r="K20">
-        <v>0.9798057965676011</v>
+        <v>1.031144474624801</v>
       </c>
       <c r="L20">
-        <v>0.9792045807746586</v>
+        <v>1.023179245750419</v>
       </c>
       <c r="M20">
-        <v>0.9788207454429155</v>
+        <v>1.037352294459242</v>
       </c>
       <c r="N20">
-        <v>0.9963685599399655</v>
+        <v>1.012159423679525</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9428114270012877</v>
+        <v>1.01706203804557</v>
       </c>
       <c r="D21">
-        <v>0.9580386605370204</v>
+        <v>1.02636873971436</v>
       </c>
       <c r="E21">
-        <v>0.9582897456530833</v>
+        <v>1.018542843298231</v>
       </c>
       <c r="F21">
-        <v>0.9562115847167354</v>
+        <v>1.032427517046178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9749112842371388</v>
+        <v>1.023787178834855</v>
       </c>
       <c r="K21">
-        <v>0.9738611334734594</v>
+        <v>1.029985094237149</v>
       </c>
       <c r="L21">
-        <v>0.9741068955434347</v>
+        <v>1.022189185020519</v>
       </c>
       <c r="M21">
-        <v>0.9720729035024969</v>
+        <v>1.036021001468365</v>
       </c>
       <c r="N21">
-        <v>0.994507807744887</v>
+        <v>1.011812372979428</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9378012282766537</v>
+        <v>1.016176357773045</v>
       </c>
       <c r="D22">
-        <v>0.9534540462404931</v>
+        <v>1.025505851257195</v>
       </c>
       <c r="E22">
-        <v>0.954267514198292</v>
+        <v>1.017785494204068</v>
       </c>
       <c r="F22">
-        <v>0.9510936065227209</v>
+        <v>1.031457350459447</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9715367596442255</v>
+        <v>1.023157984808569</v>
       </c>
       <c r="K22">
-        <v>0.9700076356223031</v>
+        <v>1.029255988901635</v>
       </c>
       <c r="L22">
-        <v>0.9708028425928359</v>
+        <v>1.021566409584932</v>
       </c>
       <c r="M22">
-        <v>0.9677004196832324</v>
+        <v>1.035184111500782</v>
       </c>
       <c r="N22">
-        <v>0.9933001675110108</v>
+        <v>1.011593708098701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9404726496076199</v>
+        <v>1.016645873480442</v>
       </c>
       <c r="D23">
-        <v>0.9558975401135931</v>
+        <v>1.025963245108554</v>
       </c>
       <c r="E23">
-        <v>0.9564109707088575</v>
+        <v>1.018186947949124</v>
       </c>
       <c r="F23">
-        <v>0.9538214663954859</v>
+        <v>1.03197158949945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9733359094695072</v>
+        <v>1.023491573321971</v>
       </c>
       <c r="K23">
-        <v>0.9720619410656388</v>
+        <v>1.029642517048552</v>
       </c>
       <c r="L23">
-        <v>0.9725641886089955</v>
+        <v>1.021896582198739</v>
       </c>
       <c r="M23">
-        <v>0.9700312495692937</v>
+        <v>1.035627749684604</v>
       </c>
       <c r="N23">
-        <v>0.9939440866974557</v>
+        <v>1.011709670270188</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9506603471266281</v>
+        <v>1.018494335439357</v>
       </c>
       <c r="D24">
-        <v>0.9652372167550796</v>
+        <v>1.027764856144744</v>
       </c>
       <c r="E24">
-        <v>0.9646099809515869</v>
+        <v>1.019768139505433</v>
       </c>
       <c r="F24">
-        <v>0.9642463016618208</v>
+        <v>1.033997552243424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9801995159409737</v>
+        <v>1.024803985449674</v>
       </c>
       <c r="K24">
-        <v>0.9799036049573451</v>
+        <v>1.031163909298148</v>
       </c>
       <c r="L24">
-        <v>0.9792884581553922</v>
+        <v>1.023195839545054</v>
       </c>
       <c r="M24">
-        <v>0.9789317976593536</v>
+        <v>1.037374616450248</v>
       </c>
       <c r="N24">
-        <v>0.9963991487841175</v>
+        <v>1.012165234259987</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9618731056379983</v>
+        <v>1.020639535189353</v>
       </c>
       <c r="D25">
-        <v>0.9755560511182375</v>
+        <v>1.02985746907419</v>
       </c>
       <c r="E25">
-        <v>0.9736789809132778</v>
+        <v>1.02160455068109</v>
       </c>
       <c r="F25">
-        <v>0.9757622407971782</v>
+        <v>1.036351690044639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9877554309742275</v>
+        <v>1.026325182656157</v>
       </c>
       <c r="K25">
-        <v>0.9885460628824707</v>
+        <v>1.032928791908624</v>
       </c>
       <c r="L25">
-        <v>0.9867001183168406</v>
+        <v>1.024702370860777</v>
       </c>
       <c r="M25">
-        <v>0.9887488429120577</v>
+        <v>1.039402486532032</v>
       </c>
       <c r="N25">
-        <v>0.9990978625977334</v>
+        <v>1.01269190116642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_217/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.022350787414186</v>
+        <v>0.9703879261594427</v>
       </c>
       <c r="D2">
-        <v>1.031528190178009</v>
+        <v>0.983420382007024</v>
       </c>
       <c r="E2">
-        <v>1.023070562848129</v>
+        <v>0.9805972625657212</v>
       </c>
       <c r="F2">
-        <v>1.038231974351167</v>
+        <v>0.9845390042495904</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.027537115733058</v>
+        <v>0.9934919008188744</v>
       </c>
       <c r="K2">
-        <v>1.034336047918498</v>
+        <v>0.9951156339500011</v>
       </c>
       <c r="L2">
-        <v>1.025903081956963</v>
+        <v>0.992333694253805</v>
       </c>
       <c r="M2">
-        <v>1.041020594774783</v>
+        <v>0.9962180221006669</v>
       </c>
       <c r="N2">
-        <v>1.013110380410271</v>
+        <v>1.001142583449286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.023593510720765</v>
+        <v>0.9763490833094178</v>
       </c>
       <c r="D3">
-        <v>1.0327422910951</v>
+        <v>0.9889411636448447</v>
       </c>
       <c r="E3">
-        <v>1.024135802793349</v>
+        <v>0.9854568658910318</v>
       </c>
       <c r="F3">
-        <v>1.039598811691194</v>
+        <v>0.9907010294037466</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.028416327729058</v>
+        <v>0.9975059400596138</v>
       </c>
       <c r="K3">
-        <v>1.03535764479218</v>
+        <v>0.9997175276507289</v>
       </c>
       <c r="L3">
-        <v>1.026774417607138</v>
+        <v>0.9962792741240821</v>
       </c>
       <c r="M3">
-        <v>1.042195931920883</v>
+        <v>1.001454291443158</v>
       </c>
       <c r="N3">
-        <v>1.013413320091271</v>
+        <v>1.002570513200314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.024397749068383</v>
+        <v>0.9801118835607729</v>
       </c>
       <c r="D4">
-        <v>1.033528378173576</v>
+        <v>0.992432542898485</v>
       </c>
       <c r="E4">
-        <v>1.024825458674122</v>
+        <v>0.988531237513145</v>
       </c>
       <c r="F4">
-        <v>1.040483999279207</v>
+        <v>0.9945984641690945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.028984897215536</v>
+        <v>1.000038384051626</v>
       </c>
       <c r="K4">
-        <v>1.036018609460988</v>
+        <v>1.002623166753063</v>
       </c>
       <c r="L4">
-        <v>1.027338015034045</v>
+        <v>0.9987700800216897</v>
       </c>
       <c r="M4">
-        <v>1.042956677041177</v>
+        <v>1.004762521128083</v>
       </c>
       <c r="N4">
-        <v>1.013608922337439</v>
+        <v>1.003469934716258</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024735880523187</v>
+        <v>0.9816722392291298</v>
       </c>
       <c r="D5">
-        <v>1.033858966674272</v>
+        <v>0.9938818633909952</v>
       </c>
       <c r="E5">
-        <v>1.025115480973066</v>
+        <v>0.9898076891709772</v>
       </c>
       <c r="F5">
-        <v>1.040856314753914</v>
+        <v>0.9962164985299169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.029223844021568</v>
+        <v>1.001088174229124</v>
       </c>
       <c r="K5">
-        <v>1.036296462350704</v>
+        <v>1.003828224396492</v>
       </c>
       <c r="L5">
-        <v>1.027574901192634</v>
+        <v>0.9998029706818783</v>
       </c>
       <c r="M5">
-        <v>1.043276549872753</v>
+        <v>1.006135049999644</v>
       </c>
       <c r="N5">
-        <v>1.013691053268918</v>
+        <v>1.00384240859526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.024792656095009</v>
+        <v>0.9819329978669447</v>
       </c>
       <c r="D6">
-        <v>1.033914480885</v>
+        <v>0.9941241540920515</v>
       </c>
       <c r="E6">
-        <v>1.025164182366333</v>
+        <v>0.9900210934507818</v>
       </c>
       <c r="F6">
-        <v>1.040918838941032</v>
+        <v>0.9964870038958461</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.029263959604413</v>
+        <v>1.001263587055335</v>
       </c>
       <c r="K6">
-        <v>1.036343114147181</v>
+        <v>1.004029614786236</v>
       </c>
       <c r="L6">
-        <v>1.027614672514299</v>
+        <v>0.999975580616067</v>
       </c>
       <c r="M6">
-        <v>1.04333026124927</v>
+        <v>1.006364458400135</v>
       </c>
       <c r="N6">
-        <v>1.013704837543325</v>
+        <v>1.003904624183513</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.024402267077738</v>
+        <v>0.9801328163028645</v>
       </c>
       <c r="D7">
-        <v>1.033532795049188</v>
+        <v>0.9924519801333986</v>
       </c>
       <c r="E7">
-        <v>1.024829333607175</v>
+        <v>0.9885483554631613</v>
       </c>
       <c r="F7">
-        <v>1.040488973456156</v>
+        <v>0.9946201634259357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.028988090346214</v>
+        <v>1.000052468867941</v>
       </c>
       <c r="K7">
-        <v>1.036022322208186</v>
+        <v>1.002639332518065</v>
       </c>
       <c r="L7">
-        <v>1.027341180514156</v>
+        <v>0.9987839366880394</v>
       </c>
       <c r="M7">
-        <v>1.042960950976578</v>
+        <v>1.004780931495422</v>
       </c>
       <c r="N7">
-        <v>1.013610020168529</v>
+        <v>1.003474933606174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.022770749646192</v>
+        <v>0.9724227674963144</v>
       </c>
       <c r="D8">
-        <v>1.031938402518974</v>
+        <v>0.98530348850378</v>
       </c>
       <c r="E8">
-        <v>1.023430488954062</v>
+        <v>0.9822545875483917</v>
       </c>
       <c r="F8">
-        <v>1.038693749124722</v>
+        <v>0.9866407415430795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.027834320712148</v>
+        <v>0.9948623340110128</v>
       </c>
       <c r="K8">
-        <v>1.034681318314149</v>
+        <v>0.9966862834495684</v>
       </c>
       <c r="L8">
-        <v>1.026197599202938</v>
+        <v>0.9936804207666454</v>
       </c>
       <c r="M8">
-        <v>1.041417760474974</v>
+        <v>0.9980047658054193</v>
       </c>
       <c r="N8">
-        <v>1.01321284743053</v>
+        <v>1.001630386487763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.019896561574956</v>
+        <v>0.9580600010048932</v>
       </c>
       <c r="D9">
-        <v>1.029132487648931</v>
+        <v>0.9720422419965715</v>
       </c>
       <c r="E9">
-        <v>1.020968353559982</v>
+        <v>0.9705896241751731</v>
       </c>
       <c r="F9">
-        <v>1.035535986312455</v>
+        <v>0.9718408744294645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.025798565733092</v>
+        <v>0.9851859468154545</v>
       </c>
       <c r="K9">
-        <v>1.032317632095826</v>
+        <v>0.9856058079599005</v>
       </c>
       <c r="L9">
-        <v>1.024180759041069</v>
+        <v>0.9841785952718977</v>
       </c>
       <c r="M9">
-        <v>1.038700078505805</v>
+        <v>0.9854079562792686</v>
       </c>
       <c r="N9">
-        <v>1.012509748483676</v>
+        <v>0.9981807260147221</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.017980783264892</v>
+        <v>0.9478809748393703</v>
       </c>
       <c r="D10">
-        <v>1.027264179551022</v>
+        <v>0.9626858489950447</v>
       </c>
       <c r="E10">
-        <v>1.019328731903349</v>
+        <v>0.9623692787768381</v>
       </c>
       <c r="F10">
-        <v>1.033434454454585</v>
+        <v>0.9613987236109646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.0244395104461</v>
+        <v>0.9783267265606328</v>
       </c>
       <c r="K10">
-        <v>1.030741283319735</v>
+        <v>0.9777631688320685</v>
       </c>
       <c r="L10">
-        <v>1.022834971900181</v>
+        <v>0.9774529147323697</v>
       </c>
       <c r="M10">
-        <v>1.036889244533728</v>
+        <v>0.9765017579096976</v>
       </c>
       <c r="N10">
-        <v>1.012038824820527</v>
+        <v>0.995729536956045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.017151276390657</v>
+        <v>0.9433094364352844</v>
       </c>
       <c r="D11">
-        <v>1.026455699255192</v>
+        <v>0.9584948100232455</v>
       </c>
       <c r="E11">
-        <v>1.018619165307329</v>
+        <v>0.9586900712138917</v>
       </c>
       <c r="F11">
-        <v>1.032525296757998</v>
+        <v>0.9567207615305005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.023850556107359</v>
+        <v>0.9752467652338256</v>
       </c>
       <c r="K11">
-        <v>1.030058549531312</v>
+        <v>0.9742443266524122</v>
       </c>
       <c r="L11">
-        <v>1.022251921506253</v>
+        <v>0.974435472346893</v>
       </c>
       <c r="M11">
-        <v>1.036105329595163</v>
+        <v>0.9725077714698411</v>
       </c>
       <c r="N11">
-        <v>1.011834385359114</v>
+        <v>0.9946278391905979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.016843163104841</v>
+        <v>0.941584751104615</v>
       </c>
       <c r="D12">
-        <v>1.026155467707971</v>
+        <v>0.9569154343587628</v>
       </c>
       <c r="E12">
-        <v>1.018355659059484</v>
+        <v>0.957304080406586</v>
       </c>
       <c r="F12">
-        <v>1.032187715109719</v>
+        <v>0.9549577545359775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.02363171906525</v>
+        <v>0.9740849814364462</v>
       </c>
       <c r="K12">
-        <v>1.029804924881122</v>
+        <v>0.9729173883251585</v>
       </c>
       <c r="L12">
-        <v>1.022035301521377</v>
+        <v>0.9732976767556913</v>
       </c>
       <c r="M12">
-        <v>1.035814174280222</v>
+        <v>0.9710019446003556</v>
       </c>
       <c r="N12">
-        <v>1.011758367914563</v>
+        <v>0.9942121430653501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.016909254388389</v>
+        <v>0.9419559403173012</v>
       </c>
       <c r="D13">
-        <v>1.02621986508416</v>
+        <v>0.9572552686236528</v>
       </c>
       <c r="E13">
-        <v>1.018412179430913</v>
+        <v>0.9576022803232846</v>
       </c>
       <c r="F13">
-        <v>1.032260122139005</v>
+        <v>0.9553371077606716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.023678663695606</v>
+        <v>0.9743350125285728</v>
       </c>
       <c r="K13">
-        <v>1.029859329483643</v>
+        <v>0.9732029452024697</v>
       </c>
       <c r="L13">
-        <v>1.022081769492735</v>
+        <v>0.9735425265903038</v>
       </c>
       <c r="M13">
-        <v>1.035876626968145</v>
+        <v>0.9713259857218947</v>
       </c>
       <c r="N13">
-        <v>1.011774677520252</v>
+        <v>0.9943016115779202</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.017125807617683</v>
+        <v>0.943167428486212</v>
       </c>
       <c r="D14">
-        <v>1.026430880526107</v>
+        <v>0.9583647303053726</v>
       </c>
       <c r="E14">
-        <v>1.018597382618046</v>
+        <v>0.9585759083820141</v>
       </c>
       <c r="F14">
-        <v>1.032497389723697</v>
+        <v>0.9565755607363686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.023832468472985</v>
+        <v>0.975151101532827</v>
       </c>
       <c r="K14">
-        <v>1.030037585400715</v>
+        <v>0.9741350558388859</v>
       </c>
       <c r="L14">
-        <v>1.022234016642251</v>
+        <v>0.9743417755199929</v>
       </c>
       <c r="M14">
-        <v>1.036081262099261</v>
+        <v>0.9723837638582202</v>
       </c>
       <c r="N14">
-        <v>1.011828103358284</v>
+        <v>0.9945936123163643</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.017259233445825</v>
+        <v>0.9439102771563271</v>
       </c>
       <c r="D15">
-        <v>1.026560903839274</v>
+        <v>0.9590452542272413</v>
       </c>
       <c r="E15">
-        <v>1.018711500096753</v>
+        <v>0.9591731825161895</v>
       </c>
       <c r="F15">
-        <v>1.032643593921437</v>
+        <v>0.9573351860892878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.023927222918935</v>
+        <v>0.9756515296727789</v>
       </c>
       <c r="K15">
-        <v>1.030147411120228</v>
+        <v>0.9747066803845079</v>
       </c>
       <c r="L15">
-        <v>1.022327814578219</v>
+        <v>0.974831931349422</v>
       </c>
       <c r="M15">
-        <v>1.036207347869417</v>
+        <v>0.9730324919995792</v>
       </c>
       <c r="N15">
-        <v>1.011861010229249</v>
+        <v>0.9947726521326505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.018035835429233</v>
+        <v>0.9481807541067182</v>
       </c>
       <c r="D16">
-        <v>1.027317846245128</v>
+        <v>0.9629609145311785</v>
       </c>
       <c r="E16">
-        <v>1.019375831785874</v>
+        <v>0.9626108182090505</v>
       </c>
       <c r="F16">
-        <v>1.033494809256067</v>
+        <v>0.961705730728483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.024478587248081</v>
+        <v>0.9785287154038692</v>
       </c>
       <c r="K16">
-        <v>1.030786590459599</v>
+        <v>0.9779939953157273</v>
       </c>
       <c r="L16">
-        <v>1.022873660240158</v>
+        <v>0.9776508583295891</v>
       </c>
       <c r="M16">
-        <v>1.036941274122437</v>
+        <v>0.9767637933684435</v>
       </c>
       <c r="N16">
-        <v>1.012052381666033</v>
+        <v>0.9958017687443492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.018522985208828</v>
+        <v>0.9508142818763786</v>
       </c>
       <c r="D17">
-        <v>1.027792790841299</v>
+        <v>0.9653785974608006</v>
       </c>
       <c r="E17">
-        <v>1.019792655448253</v>
+        <v>0.9647341663628697</v>
       </c>
       <c r="F17">
-        <v>1.034028971342203</v>
+        <v>0.9644040926050899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.024824315165395</v>
+        <v>0.9803032439333658</v>
       </c>
       <c r="K17">
-        <v>1.031187485193935</v>
+        <v>0.980022175131475</v>
       </c>
       <c r="L17">
-        <v>1.023215969099819</v>
+        <v>0.9793901403225997</v>
       </c>
       <c r="M17">
-        <v>1.037401695154321</v>
+        <v>0.9790664242734886</v>
       </c>
       <c r="N17">
-        <v>1.012172282668454</v>
+        <v>0.9964362294706769</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018807135293721</v>
+        <v>0.952334699212137</v>
       </c>
       <c r="D18">
-        <v>1.028069867312775</v>
+        <v>0.9667754362692611</v>
       </c>
       <c r="E18">
-        <v>1.020035820392533</v>
+        <v>0.965961226065846</v>
       </c>
       <c r="F18">
-        <v>1.034340618327948</v>
+        <v>0.9659630452978214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.025025926763864</v>
+        <v>0.9813277854817515</v>
       </c>
       <c r="K18">
-        <v>1.031421304602492</v>
+        <v>0.9811934202735971</v>
       </c>
       <c r="L18">
-        <v>1.023415601722137</v>
+        <v>0.9803945717616463</v>
       </c>
       <c r="M18">
-        <v>1.037670269284661</v>
+        <v>0.9803963566324765</v>
       </c>
       <c r="N18">
-        <v>1.012242168134054</v>
+        <v>0.9968024401878205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.018904023879935</v>
+        <v>0.9528505203331802</v>
       </c>
       <c r="D19">
-        <v>1.028164351670755</v>
+        <v>0.9672495045624995</v>
       </c>
       <c r="E19">
-        <v>1.020118739981219</v>
+        <v>0.9663777186839866</v>
       </c>
       <c r="F19">
-        <v>1.0344468954371</v>
+        <v>0.9664921256222315</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.025094663423481</v>
+        <v>0.9816753805148074</v>
       </c>
       <c r="K19">
-        <v>1.031501028381117</v>
+        <v>0.981590830925929</v>
       </c>
       <c r="L19">
-        <v>1.023483666190937</v>
+        <v>0.980735384132369</v>
       </c>
       <c r="M19">
-        <v>1.037761849312173</v>
+        <v>0.9808476446519032</v>
       </c>
       <c r="N19">
-        <v>1.012265988675049</v>
+        <v>0.9969266659942165</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.018470718272737</v>
+        <v>0.9505333642495966</v>
       </c>
       <c r="D20">
-        <v>1.027741828698423</v>
+        <v>0.9651205957310406</v>
       </c>
       <c r="E20">
-        <v>1.01974793021937</v>
+        <v>0.9645075454012936</v>
       </c>
       <c r="F20">
-        <v>1.033971652629332</v>
+        <v>0.9641161440059047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.024787226567877</v>
+        <v>0.9801139495811927</v>
       </c>
       <c r="K20">
-        <v>1.031144474624801</v>
+        <v>0.9798057965676006</v>
       </c>
       <c r="L20">
-        <v>1.023179245750419</v>
+        <v>0.9792045807746579</v>
       </c>
       <c r="M20">
-        <v>1.037352294459242</v>
+        <v>0.9788207454429149</v>
       </c>
       <c r="N20">
-        <v>1.012159423679525</v>
+        <v>0.9963685599399653</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.01706203804557</v>
+        <v>0.9428114270012878</v>
       </c>
       <c r="D21">
-        <v>1.02636873971436</v>
+        <v>0.9580386605370206</v>
       </c>
       <c r="E21">
-        <v>1.018542843298231</v>
+        <v>0.9582897456530834</v>
       </c>
       <c r="F21">
-        <v>1.032427517046178</v>
+        <v>0.9562115847167357</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.023787178834855</v>
+        <v>0.9749112842371389</v>
       </c>
       <c r="K21">
-        <v>1.029985094237149</v>
+        <v>0.9738611334734596</v>
       </c>
       <c r="L21">
-        <v>1.022189185020519</v>
+        <v>0.9741068955434349</v>
       </c>
       <c r="M21">
-        <v>1.036021001468365</v>
+        <v>0.9720729035024971</v>
       </c>
       <c r="N21">
-        <v>1.011812372979428</v>
+        <v>0.994507807744887</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.016176357773045</v>
+        <v>0.9378012282766531</v>
       </c>
       <c r="D22">
-        <v>1.025505851257195</v>
+        <v>0.9534540462404922</v>
       </c>
       <c r="E22">
-        <v>1.017785494204068</v>
+        <v>0.9542675141982915</v>
       </c>
       <c r="F22">
-        <v>1.031457350459447</v>
+        <v>0.95109360652272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.023157984808569</v>
+        <v>0.9715367596442248</v>
       </c>
       <c r="K22">
-        <v>1.029255988901635</v>
+        <v>0.9700076356223024</v>
       </c>
       <c r="L22">
-        <v>1.021566409584932</v>
+        <v>0.9708028425928352</v>
       </c>
       <c r="M22">
-        <v>1.035184111500782</v>
+        <v>0.9677004196832314</v>
       </c>
       <c r="N22">
-        <v>1.011593708098701</v>
+        <v>0.9933001675110105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.016645873480442</v>
+        <v>0.940472649607619</v>
       </c>
       <c r="D23">
-        <v>1.025963245108554</v>
+        <v>0.9558975401135921</v>
       </c>
       <c r="E23">
-        <v>1.018186947949124</v>
+        <v>0.9564109707088573</v>
       </c>
       <c r="F23">
-        <v>1.03197158949945</v>
+        <v>0.9538214663954847</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.023491573321971</v>
+        <v>0.9733359094695067</v>
       </c>
       <c r="K23">
-        <v>1.029642517048552</v>
+        <v>0.9720619410656381</v>
       </c>
       <c r="L23">
-        <v>1.021896582198739</v>
+        <v>0.9725641886089949</v>
       </c>
       <c r="M23">
-        <v>1.035627749684604</v>
+        <v>0.9700312495692927</v>
       </c>
       <c r="N23">
-        <v>1.011709670270188</v>
+        <v>0.9939440866974555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.018494335439357</v>
+        <v>0.9506603471266273</v>
       </c>
       <c r="D24">
-        <v>1.027764856144744</v>
+        <v>0.9652372167550787</v>
       </c>
       <c r="E24">
-        <v>1.019768139505433</v>
+        <v>0.964609980951586</v>
       </c>
       <c r="F24">
-        <v>1.033997552243424</v>
+        <v>0.96424630166182</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.024803985449674</v>
+        <v>0.980199515940973</v>
       </c>
       <c r="K24">
-        <v>1.031163909298148</v>
+        <v>0.9799036049573444</v>
       </c>
       <c r="L24">
-        <v>1.023195839545054</v>
+        <v>0.9792884581553916</v>
       </c>
       <c r="M24">
-        <v>1.037374616450248</v>
+        <v>0.9789317976593529</v>
       </c>
       <c r="N24">
-        <v>1.012165234259987</v>
+        <v>0.9963991487841173</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.020639535189353</v>
+        <v>0.9618731056379981</v>
       </c>
       <c r="D25">
-        <v>1.02985746907419</v>
+        <v>0.9755560511182367</v>
       </c>
       <c r="E25">
-        <v>1.02160455068109</v>
+        <v>0.9736789809132773</v>
       </c>
       <c r="F25">
-        <v>1.036351690044639</v>
+        <v>0.9757622407971775</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.026325182656157</v>
+        <v>0.987755430974227</v>
       </c>
       <c r="K25">
-        <v>1.032928791908624</v>
+        <v>0.9885460628824702</v>
       </c>
       <c r="L25">
-        <v>1.024702370860777</v>
+        <v>0.98670011831684</v>
       </c>
       <c r="M25">
-        <v>1.039402486532032</v>
+        <v>0.9887488429120569</v>
       </c>
       <c r="N25">
-        <v>1.01269190116642</v>
+        <v>0.9990978625977331</v>
       </c>
     </row>
   </sheetData>
